--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering Steffen.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering Steffen.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulla\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffen S. Andersen\git\PTE-projekt\Documentation\08 - Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsregistrering" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="Deltagere">Deltagere!$A$1:$A$16</definedName>
     <definedName name="GyldigeRoller">'Gyldige roller'!$A$1:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>TIDSREGISTRERING FOR PTE-PROJEKTET (6-3-2017  -  24-3-2017)</t>
+  </si>
+  <si>
+    <t>planlægning</t>
+  </si>
+  <si>
+    <t>whiteboard/formaler</t>
+  </si>
+  <si>
+    <t>UC 2</t>
+  </si>
+  <si>
+    <t>Brugertests</t>
   </si>
 </sst>
 </file>
@@ -239,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -252,6 +264,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,22 +582,22 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" customWidth="1"/>
-    <col min="11" max="11" width="31.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" customWidth="1"/>
+    <col min="11" max="11" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
@@ -597,7 +610,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -608,13 +621,16 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
@@ -631,64 +647,121 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42800</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
   </sheetData>
@@ -715,12 +788,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7265625" customWidth="1"/>
+    <col min="1" max="1" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -738,87 +811,87 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -836,157 +909,157 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering Steffen.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering Steffen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>Brugertests</t>
+  </si>
+  <si>
+    <t>krydstjek</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>spørgsmål</t>
+  </si>
+  <si>
+    <t>OC 1-3-4</t>
   </si>
 </sst>
 </file>
@@ -261,10 +273,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +594,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,17 +610,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -660,10 +672,10 @@
       <c r="F5" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.64583333333333337</v>
       </c>
       <c r="I5">
@@ -675,10 +687,10 @@
       <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.54166666666666663</v>
       </c>
       <c r="I6">
@@ -687,17 +699,19 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>42801</v>
+      </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.4375</v>
       </c>
       <c r="I7">
@@ -712,10 +726,10 @@
       <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.4375</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.64583333333333337</v>
       </c>
       <c r="I8">
@@ -726,19 +740,69 @@
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>42802</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering Steffen.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering Steffen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>OC 1-3-4</t>
+  </si>
+  <si>
+    <t>10/032017</t>
+  </si>
+  <si>
+    <t>SD og CD på klassen</t>
+  </si>
+  <si>
+    <t>review af GUI</t>
+  </si>
+  <si>
+    <t>Tidsregistereing</t>
   </si>
 </sst>
 </file>
@@ -594,7 +606,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,24 +820,62 @@
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="I16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering Steffen.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering Steffen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -232,6 +232,21 @@
   </si>
   <si>
     <t>Tidsregistereing</t>
+  </si>
+  <si>
+    <t>DD opdatering</t>
+  </si>
+  <si>
+    <t>UC 6 indsamlig</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>bugFix</t>
+  </si>
+  <si>
+    <t>design OC5</t>
   </si>
 </sst>
 </file>
@@ -603,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,13 +885,100 @@
       <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>42807</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="I23">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="I29">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering Steffen.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering Steffen.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>design OC5</t>
+  </si>
+  <si>
+    <t>bugfixing</t>
+  </si>
+  <si>
+    <t>gui - bugfixing</t>
+  </si>
+  <si>
+    <t>design</t>
   </si>
 </sst>
 </file>
@@ -618,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,6 +987,134 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I40" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>42816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I47">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>42817</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
